--- a/data/pca/factorExposure/factorExposure_2016-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0111094898019872</v>
+        <v>-0.01252285248061562</v>
       </c>
       <c r="C2">
-        <v>0.05212308770461061</v>
+        <v>0.04271030721669098</v>
       </c>
       <c r="D2">
-        <v>0.02229217228916829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06565711295401459</v>
+      </c>
+      <c r="E2">
+        <v>-0.05178169978463314</v>
+      </c>
+      <c r="F2">
+        <v>-0.08646219057591444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05140561868309329</v>
+        <v>-0.03138189299718125</v>
       </c>
       <c r="C3">
-        <v>0.09910250223310949</v>
+        <v>0.08073988187130743</v>
       </c>
       <c r="D3">
-        <v>0.05270941862963995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09863913439454355</v>
+      </c>
+      <c r="E3">
+        <v>-0.06440096872356804</v>
+      </c>
+      <c r="F3">
+        <v>-0.01951802469228878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0639348508636689</v>
+        <v>-0.05510959499807119</v>
       </c>
       <c r="C4">
-        <v>0.05917501868056134</v>
+        <v>0.06492601436977168</v>
       </c>
       <c r="D4">
-        <v>0.01678503972399285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05995637027601768</v>
+      </c>
+      <c r="E4">
+        <v>-0.04514366703884035</v>
+      </c>
+      <c r="F4">
+        <v>-0.07909034599998183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02865290141902403</v>
+        <v>-0.0324833990438415</v>
       </c>
       <c r="C6">
-        <v>0.04121960941685612</v>
+        <v>0.03718840809014317</v>
       </c>
       <c r="D6">
-        <v>0.02788222755999739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07118394291722946</v>
+      </c>
+      <c r="E6">
+        <v>-0.05886247331860144</v>
+      </c>
+      <c r="F6">
+        <v>-0.07355953277618062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02216655316523311</v>
+        <v>-0.01980249830265682</v>
       </c>
       <c r="C7">
-        <v>0.03977808305715712</v>
+        <v>0.03610586636802195</v>
       </c>
       <c r="D7">
-        <v>-0.004408707418722657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04065516061564439</v>
+      </c>
+      <c r="E7">
+        <v>-0.0332549530348035</v>
+      </c>
+      <c r="F7">
+        <v>-0.1089445771949059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001539837356016115</v>
+        <v>-0.003554764180597737</v>
       </c>
       <c r="C8">
-        <v>0.01889857426635248</v>
+        <v>0.02504309334327721</v>
       </c>
       <c r="D8">
-        <v>0.02964405831930592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03675250931075019</v>
+      </c>
+      <c r="E8">
+        <v>-0.03907873593975193</v>
+      </c>
+      <c r="F8">
+        <v>-0.05303733687341169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0285990712478858</v>
+        <v>-0.03452803581751054</v>
       </c>
       <c r="C9">
-        <v>0.04277768846967194</v>
+        <v>0.0507318667205407</v>
       </c>
       <c r="D9">
-        <v>0.01171303814986402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04626293471816775</v>
+      </c>
+      <c r="E9">
+        <v>-0.03842486217981091</v>
+      </c>
+      <c r="F9">
+        <v>-0.08757498051284579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08114895005690399</v>
+        <v>-0.1045920940859602</v>
       </c>
       <c r="C10">
-        <v>-0.1902708972745326</v>
+        <v>-0.1872660996015238</v>
       </c>
       <c r="D10">
-        <v>0.008006392162490033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0005455055455536192</v>
+      </c>
+      <c r="E10">
+        <v>-0.04524748612758521</v>
+      </c>
+      <c r="F10">
+        <v>-0.03899572443302637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03903974217142554</v>
+        <v>-0.03433656400596265</v>
       </c>
       <c r="C11">
-        <v>0.05465578058227829</v>
+        <v>0.05168432239477449</v>
       </c>
       <c r="D11">
-        <v>-0.001889655352990105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03337826832729027</v>
+      </c>
+      <c r="E11">
+        <v>-0.004797303418622599</v>
+      </c>
+      <c r="F11">
+        <v>-0.06363377032810529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03429107360633717</v>
+        <v>-0.0352290785967488</v>
       </c>
       <c r="C12">
-        <v>0.0450140373701005</v>
+        <v>0.04670097158380825</v>
       </c>
       <c r="D12">
-        <v>-0.0004427107469439747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02650598697741591</v>
+      </c>
+      <c r="E12">
+        <v>-0.01423107955298903</v>
+      </c>
+      <c r="F12">
+        <v>-0.06645373264760845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01086817945209341</v>
+        <v>-0.01108355703019776</v>
       </c>
       <c r="C13">
-        <v>0.0431797633219437</v>
+        <v>0.04181200318779688</v>
       </c>
       <c r="D13">
-        <v>0.01444310188936315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06712185966085545</v>
+      </c>
+      <c r="E13">
+        <v>-0.06348056863565041</v>
+      </c>
+      <c r="F13">
+        <v>-0.1149686873382846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.007408601697034977</v>
+        <v>-0.005162839471151893</v>
       </c>
       <c r="C14">
-        <v>0.03212384250063215</v>
+        <v>0.02907687741888059</v>
       </c>
       <c r="D14">
-        <v>-0.01706553858969793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03195966813432069</v>
+      </c>
+      <c r="E14">
+        <v>-0.02742402874500574</v>
+      </c>
+      <c r="F14">
+        <v>-0.09877293144122749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001465694837931627</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002343191548196425</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.002463379464438908</v>
+      </c>
+      <c r="E15">
+        <v>-0.0004712495535327822</v>
+      </c>
+      <c r="F15">
+        <v>-0.002007969379345051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03402066701114137</v>
+        <v>-0.03236125888147102</v>
       </c>
       <c r="C16">
-        <v>0.04019273748365119</v>
+        <v>0.0445316197077543</v>
       </c>
       <c r="D16">
-        <v>0.004251926421147589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02919012998358287</v>
+      </c>
+      <c r="E16">
+        <v>-0.01943881711904462</v>
+      </c>
+      <c r="F16">
+        <v>-0.06847752942296098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02299437239704898</v>
+        <v>-0.01535754718064797</v>
       </c>
       <c r="C19">
-        <v>0.06091132255544129</v>
+        <v>0.04999372662566203</v>
       </c>
       <c r="D19">
-        <v>0.06708762460627261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1042790129509068</v>
+      </c>
+      <c r="E19">
+        <v>-0.07958894698169292</v>
+      </c>
+      <c r="F19">
+        <v>-0.09706519750911698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01376162680168806</v>
+        <v>-0.01274956072620809</v>
       </c>
       <c r="C20">
-        <v>0.04400221511808375</v>
+        <v>0.03995895619385859</v>
       </c>
       <c r="D20">
-        <v>0.01505813345495015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04409146683018981</v>
+      </c>
+      <c r="E20">
+        <v>-0.05535688176298967</v>
+      </c>
+      <c r="F20">
+        <v>-0.08963345687682088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008613556185962904</v>
+        <v>-0.00643112497347879</v>
       </c>
       <c r="C21">
-        <v>0.04905884627770554</v>
+        <v>0.04281690561281194</v>
       </c>
       <c r="D21">
-        <v>0.03470660393555854</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07529872012371776</v>
+      </c>
+      <c r="E21">
+        <v>-0.06880187928226145</v>
+      </c>
+      <c r="F21">
+        <v>-0.133742973225447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006519007023955511</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02284596608679372</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03351092428913587</v>
+      </c>
+      <c r="E22">
+        <v>-0.0159821820769247</v>
+      </c>
+      <c r="F22">
+        <v>-0.01391201932558596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.000586100575085704</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02297722897917734</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03321205255073467</v>
+      </c>
+      <c r="E23">
+        <v>-0.01628984028577604</v>
+      </c>
+      <c r="F23">
+        <v>-0.01378587458868884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02811723627566887</v>
+        <v>-0.03066927215617845</v>
       </c>
       <c r="C24">
-        <v>0.04684174445146849</v>
+        <v>0.05229550055377386</v>
       </c>
       <c r="D24">
-        <v>-0.0009245296750119729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0269394839222763</v>
+      </c>
+      <c r="E24">
+        <v>-0.01564527859658134</v>
+      </c>
+      <c r="F24">
+        <v>-0.07501021359447986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04471436855257453</v>
+        <v>-0.04127563059209475</v>
       </c>
       <c r="C25">
-        <v>0.05782501633815823</v>
+        <v>0.05811711147404429</v>
       </c>
       <c r="D25">
-        <v>-0.01077571731201594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02441886406822361</v>
+      </c>
+      <c r="E25">
+        <v>-0.0124639888269664</v>
+      </c>
+      <c r="F25">
+        <v>-0.07802014560895366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0108022910585734</v>
+        <v>-0.01324474648586537</v>
       </c>
       <c r="C26">
-        <v>0.0166162700329276</v>
+        <v>0.01491293866742541</v>
       </c>
       <c r="D26">
-        <v>0.002342007978966574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02753416343817189</v>
+      </c>
+      <c r="E26">
+        <v>-0.0280303041019421</v>
+      </c>
+      <c r="F26">
+        <v>-0.07423826452419224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.09449202368598884</v>
+        <v>-0.1398200402434506</v>
       </c>
       <c r="C28">
-        <v>-0.2173195446894959</v>
+        <v>-0.2375167697189776</v>
       </c>
       <c r="D28">
-        <v>0.001846392857521114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01423674117611557</v>
+      </c>
+      <c r="E28">
+        <v>-0.04714227294161757</v>
+      </c>
+      <c r="F28">
+        <v>-0.05423103938056718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01211827615902031</v>
+        <v>-0.005831469658556723</v>
       </c>
       <c r="C29">
-        <v>0.02517322960708659</v>
+        <v>0.0258254937050014</v>
       </c>
       <c r="D29">
-        <v>-0.01629868996739475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02455290435356221</v>
+      </c>
+      <c r="E29">
+        <v>-0.03035199955214081</v>
+      </c>
+      <c r="F29">
+        <v>-0.09039291070595458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05039980961958297</v>
+        <v>-0.03866974918283612</v>
       </c>
       <c r="C30">
-        <v>0.06429508952825803</v>
+        <v>0.06303112536036343</v>
       </c>
       <c r="D30">
-        <v>0.03369908312194565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.109871159310118</v>
+      </c>
+      <c r="E30">
+        <v>-0.03348343290796666</v>
+      </c>
+      <c r="F30">
+        <v>-0.1005754473080315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04254367640158742</v>
+        <v>-0.05264710195200896</v>
       </c>
       <c r="C31">
-        <v>0.03224376273476173</v>
+        <v>0.05102966055098428</v>
       </c>
       <c r="D31">
-        <v>-0.01084725279538363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002294430384778326</v>
+      </c>
+      <c r="E31">
+        <v>-0.04531799306743408</v>
+      </c>
+      <c r="F31">
+        <v>-0.08070179883646762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.001063001967249074</v>
+        <v>-0.003516273922837328</v>
       </c>
       <c r="C32">
-        <v>0.04484427464494029</v>
+        <v>0.03029135777794469</v>
       </c>
       <c r="D32">
-        <v>0.01548461566448268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04963402464157739</v>
+      </c>
+      <c r="E32">
+        <v>-0.02076126081777481</v>
+      </c>
+      <c r="F32">
+        <v>-0.0690549235048292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0248391263086896</v>
+        <v>-0.02315348852183862</v>
       </c>
       <c r="C33">
-        <v>0.06127453790382068</v>
+        <v>0.05369360750505384</v>
       </c>
       <c r="D33">
-        <v>0.01921449546397398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08365806004158874</v>
+      </c>
+      <c r="E33">
+        <v>-0.04827646402375237</v>
+      </c>
+      <c r="F33">
+        <v>-0.1274365167529296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04900284157084967</v>
+        <v>-0.03976804819878994</v>
       </c>
       <c r="C34">
-        <v>0.05481286550955435</v>
+        <v>0.06370257545115607</v>
       </c>
       <c r="D34">
-        <v>-0.01307375207802429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03415712467226677</v>
+      </c>
+      <c r="E34">
+        <v>0.005874785827619178</v>
+      </c>
+      <c r="F34">
+        <v>-0.07382769904781855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008562650831238437</v>
+        <v>-0.01347265210924324</v>
       </c>
       <c r="C36">
-        <v>0.01217574032903769</v>
+        <v>0.01131481986514239</v>
       </c>
       <c r="D36">
-        <v>0.002728410694060233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02973454290011245</v>
+      </c>
+      <c r="E36">
+        <v>-0.03482612786818257</v>
+      </c>
+      <c r="F36">
+        <v>-0.08258364308389925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03199440286085287</v>
+        <v>-0.02537467827285739</v>
       </c>
       <c r="C38">
-        <v>0.02579784963466687</v>
+        <v>0.02481011799776201</v>
       </c>
       <c r="D38">
-        <v>0.001619463683382079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02884502485667198</v>
+      </c>
+      <c r="E38">
+        <v>-0.03488188179396992</v>
+      </c>
+      <c r="F38">
+        <v>-0.06701322416437953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03895466820991435</v>
+        <v>-0.03629927947555833</v>
       </c>
       <c r="C39">
-        <v>0.07167899426191801</v>
+        <v>0.06779570175248135</v>
       </c>
       <c r="D39">
-        <v>0.01961736541856876</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05220652397995928</v>
+      </c>
+      <c r="E39">
+        <v>-0.01729672722058903</v>
+      </c>
+      <c r="F39">
+        <v>-0.08943172587165192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01780700587496195</v>
+        <v>-0.01519336422287122</v>
       </c>
       <c r="C40">
-        <v>0.0299417719232588</v>
+        <v>0.0363118595398303</v>
       </c>
       <c r="D40">
-        <v>0.03404080129904056</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0427341030568426</v>
+      </c>
+      <c r="E40">
+        <v>-0.07146770203339912</v>
+      </c>
+      <c r="F40">
+        <v>-0.08682926208382671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01081466800636346</v>
+        <v>-0.01807667513613532</v>
       </c>
       <c r="C41">
-        <v>0.004042473955473588</v>
+        <v>0.00446083883020008</v>
       </c>
       <c r="D41">
-        <v>-0.001302774575735623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.02003113888955638</v>
+      </c>
+      <c r="E41">
+        <v>-0.03718054576659365</v>
+      </c>
+      <c r="F41">
+        <v>-0.07259540207555995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001031118523245575</v>
+        <v>-0.0005284505262735106</v>
       </c>
       <c r="C42">
-        <v>0.01704681362150693</v>
+        <v>0.009077390020214494</v>
       </c>
       <c r="D42">
-        <v>0.009361621824718315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002413152144897584</v>
+      </c>
+      <c r="E42">
+        <v>-0.008922019890135196</v>
+      </c>
+      <c r="F42">
+        <v>0.01303521680293824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03152458371243373</v>
+        <v>-0.02951118359763141</v>
       </c>
       <c r="C43">
-        <v>0.01874170416862102</v>
+        <v>0.0194399757115859</v>
       </c>
       <c r="D43">
-        <v>0.005991864504022259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0440504472366852</v>
+      </c>
+      <c r="E43">
+        <v>-0.04199976767891446</v>
+      </c>
+      <c r="F43">
+        <v>-0.08493402755939906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0206431624309214</v>
+        <v>-0.01444625611361241</v>
       </c>
       <c r="C44">
-        <v>0.05518666689735932</v>
+        <v>0.05069769374183976</v>
       </c>
       <c r="D44">
-        <v>0.01880293462610358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04461441185875174</v>
+      </c>
+      <c r="E44">
+        <v>-0.05751837666819763</v>
+      </c>
+      <c r="F44">
+        <v>-0.09187079250876944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001830022472646179</v>
+        <v>-0.007328802512659747</v>
       </c>
       <c r="C46">
-        <v>0.01899676884657485</v>
+        <v>0.02320073914850639</v>
       </c>
       <c r="D46">
-        <v>-0.01478065595591025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01702919272215289</v>
+      </c>
+      <c r="E46">
+        <v>-0.03467513229336427</v>
+      </c>
+      <c r="F46">
+        <v>-0.1040356177135236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07673958440620349</v>
+        <v>-0.08481547488197248</v>
       </c>
       <c r="C47">
-        <v>0.07422823026863165</v>
+        <v>0.07871930292680751</v>
       </c>
       <c r="D47">
-        <v>-0.00274623213356557</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01018335073601266</v>
+      </c>
+      <c r="E47">
+        <v>-0.05263848030781587</v>
+      </c>
+      <c r="F47">
+        <v>-0.08060596311144716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01913078904532305</v>
+        <v>-0.015452637072255</v>
       </c>
       <c r="C48">
-        <v>0.01174974541939149</v>
+        <v>0.01638303866691362</v>
       </c>
       <c r="D48">
-        <v>-0.004356234736263454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02068687907605118</v>
+      </c>
+      <c r="E48">
+        <v>-0.04459108554902708</v>
+      </c>
+      <c r="F48">
+        <v>-0.09626981378719365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08565523415239699</v>
+        <v>-0.07115269458020017</v>
       </c>
       <c r="C50">
-        <v>0.06938897292185042</v>
+        <v>0.06942331718195903</v>
       </c>
       <c r="D50">
-        <v>-0.01218165661235211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0003661838583074283</v>
+      </c>
+      <c r="E50">
+        <v>-0.05001045505069827</v>
+      </c>
+      <c r="F50">
+        <v>-0.06811680911157107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01096830097646613</v>
+        <v>-0.009697420996629109</v>
       </c>
       <c r="C51">
-        <v>0.04541012400135199</v>
+        <v>0.03256164216174233</v>
       </c>
       <c r="D51">
-        <v>0.001353141063985902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04924608010502267</v>
+      </c>
+      <c r="E51">
+        <v>-0.01941989856458261</v>
+      </c>
+      <c r="F51">
+        <v>-0.08539483984272055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09166843868687695</v>
+        <v>-0.09046271476675417</v>
       </c>
       <c r="C53">
-        <v>0.07677882697686382</v>
+        <v>0.09026050199072054</v>
       </c>
       <c r="D53">
-        <v>-0.0341095582538633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03774266650765409</v>
+      </c>
+      <c r="E53">
+        <v>-0.05403405088427064</v>
+      </c>
+      <c r="F53">
+        <v>-0.08861150281193839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02863978775289453</v>
+        <v>-0.02718195138345869</v>
       </c>
       <c r="C54">
-        <v>0.01977894988908839</v>
+        <v>0.02599491825796566</v>
       </c>
       <c r="D54">
-        <v>0.003542356128827829</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03573295361828115</v>
+      </c>
+      <c r="E54">
+        <v>-0.03769987704301082</v>
+      </c>
+      <c r="F54">
+        <v>-0.09510576500893202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07251937158854221</v>
+        <v>-0.08181486967436807</v>
       </c>
       <c r="C55">
-        <v>0.07072899544982029</v>
+        <v>0.07466779009975207</v>
       </c>
       <c r="D55">
-        <v>-0.03282910121089594</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04527988402864445</v>
+      </c>
+      <c r="E55">
+        <v>-0.04424322906131308</v>
+      </c>
+      <c r="F55">
+        <v>-0.06388533811690214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.148077260551891</v>
+        <v>-0.1432210835204324</v>
       </c>
       <c r="C56">
-        <v>0.09613622175431649</v>
+        <v>0.107281069365153</v>
       </c>
       <c r="D56">
-        <v>-0.02830424209734756</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04880496980658665</v>
+      </c>
+      <c r="E56">
+        <v>-0.04833774162708859</v>
+      </c>
+      <c r="F56">
+        <v>-0.0511845843747239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.003743182626991526</v>
+        <v>-0.001617931736196534</v>
       </c>
       <c r="C57">
-        <v>0.002806722990998268</v>
+        <v>0.001559070026160193</v>
       </c>
       <c r="D57">
-        <v>0.01479414627959519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.0154216338645021</v>
+      </c>
+      <c r="E57">
+        <v>-0.006377373025483939</v>
+      </c>
+      <c r="F57">
+        <v>-0.01331015976986671</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0770681577452469</v>
+        <v>-0.0301153649231048</v>
       </c>
       <c r="C58">
-        <v>0.03381910000072526</v>
+        <v>0.03352852189084977</v>
       </c>
       <c r="D58">
-        <v>0.9676537055108645</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.5115740739351305</v>
+      </c>
+      <c r="E58">
+        <v>-0.6692225424482315</v>
+      </c>
+      <c r="F58">
+        <v>0.4531018078499688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1400343162666671</v>
+        <v>-0.1519521481539121</v>
       </c>
       <c r="C59">
-        <v>-0.2025541794884692</v>
+        <v>-0.1854098417133538</v>
       </c>
       <c r="D59">
-        <v>0.02262696855659906</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03061446351001267</v>
+      </c>
+      <c r="E59">
+        <v>-0.0241826544637736</v>
+      </c>
+      <c r="F59">
+        <v>-0.02318363241614235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3104412111825266</v>
+        <v>-0.2788246664516171</v>
       </c>
       <c r="C60">
-        <v>0.09654960981296605</v>
+        <v>0.1053954497480818</v>
       </c>
       <c r="D60">
-        <v>-0.02973036934943976</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1986054627026557</v>
+      </c>
+      <c r="E60">
+        <v>0.2799608279167973</v>
+      </c>
+      <c r="F60">
+        <v>0.124594838638738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03522847051878439</v>
+        <v>-0.03867357055820062</v>
       </c>
       <c r="C61">
-        <v>0.06302845961423392</v>
+        <v>0.06154345649127805</v>
       </c>
       <c r="D61">
-        <v>0.01072104719287012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04746573684529794</v>
+      </c>
+      <c r="E61">
+        <v>-0.02254934215568471</v>
+      </c>
+      <c r="F61">
+        <v>-0.08077792498542764</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01234647387996032</v>
+        <v>-0.0144318636495885</v>
       </c>
       <c r="C63">
-        <v>0.03580472828702369</v>
+        <v>0.0312479263097885</v>
       </c>
       <c r="D63">
-        <v>-0.004292187196000315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02413263380548897</v>
+      </c>
+      <c r="E63">
+        <v>-0.03704950420080736</v>
+      </c>
+      <c r="F63">
+        <v>-0.07579981231547124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.04936655501421714</v>
+        <v>-0.05440432577796349</v>
       </c>
       <c r="C64">
-        <v>0.03064479543238445</v>
+        <v>0.05332769698766933</v>
       </c>
       <c r="D64">
-        <v>-0.006235783451004073</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01276063472396021</v>
+      </c>
+      <c r="E64">
+        <v>-0.02181671250782534</v>
+      </c>
+      <c r="F64">
+        <v>-0.08857562456102198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09213917371466897</v>
+        <v>-0.0656683755013131</v>
       </c>
       <c r="C65">
-        <v>0.04823784198665351</v>
+        <v>0.04254509950172138</v>
       </c>
       <c r="D65">
-        <v>0.03382557040280515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08471665229978516</v>
+      </c>
+      <c r="E65">
+        <v>-0.03372369641433298</v>
+      </c>
+      <c r="F65">
+        <v>-0.02637580482170095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06224456913692997</v>
+        <v>-0.04867201201554658</v>
       </c>
       <c r="C66">
-        <v>0.1074662782739463</v>
+        <v>0.09176592226286232</v>
       </c>
       <c r="D66">
-        <v>0.023826590742964</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07866075032940319</v>
+      </c>
+      <c r="E66">
+        <v>-0.01987240847961455</v>
+      </c>
+      <c r="F66">
+        <v>-0.09085083001323126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0562345356794579</v>
+        <v>-0.0480477091727833</v>
       </c>
       <c r="C67">
-        <v>0.03134157258908447</v>
+        <v>0.03126867859890746</v>
       </c>
       <c r="D67">
-        <v>-0.006716639682068885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01635712890546856</v>
+      </c>
+      <c r="E67">
+        <v>-0.01963924558742307</v>
+      </c>
+      <c r="F67">
+        <v>-0.0538076516502205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1248738093302385</v>
+        <v>-0.1581664468383071</v>
       </c>
       <c r="C68">
-        <v>-0.2847712755334147</v>
+        <v>-0.2513756194010267</v>
       </c>
       <c r="D68">
-        <v>0.006073567654809504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01753726841081291</v>
+      </c>
+      <c r="E68">
+        <v>-0.03869640391607244</v>
+      </c>
+      <c r="F68">
+        <v>-0.01617265344761239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08519695441957709</v>
+        <v>-0.08459002383989808</v>
       </c>
       <c r="C69">
-        <v>0.06891936155429881</v>
+        <v>0.0839451681074639</v>
       </c>
       <c r="D69">
-        <v>-0.03160522919384543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007055712927580715</v>
+      </c>
+      <c r="E69">
+        <v>-0.02648293464404182</v>
+      </c>
+      <c r="F69">
+        <v>-0.09538922049820742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1295761275699484</v>
+        <v>-0.1492994486230705</v>
       </c>
       <c r="C71">
-        <v>-0.2438147341590157</v>
+        <v>-0.2290051468111287</v>
       </c>
       <c r="D71">
-        <v>0.01841641348091119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01606257911250639</v>
+      </c>
+      <c r="E71">
+        <v>-0.05643596132647628</v>
+      </c>
+      <c r="F71">
+        <v>-0.05585494776413998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08184575779440496</v>
+        <v>-0.09489213103796679</v>
       </c>
       <c r="C72">
-        <v>0.04824535905620307</v>
+        <v>0.05721446837076078</v>
       </c>
       <c r="D72">
-        <v>-0.01848467402605805</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02067853659217883</v>
+      </c>
+      <c r="E72">
+        <v>-0.01068693394596326</v>
+      </c>
+      <c r="F72">
+        <v>-0.08179970214954817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4313872032744989</v>
+        <v>-0.3447702021877669</v>
       </c>
       <c r="C73">
-        <v>0.08104704687872202</v>
+        <v>0.08729367530403312</v>
       </c>
       <c r="D73">
-        <v>0.008357458507616537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4154473877128205</v>
+      </c>
+      <c r="E73">
+        <v>0.4998450418411128</v>
+      </c>
+      <c r="F73">
+        <v>0.2948917122156644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1178321626186215</v>
+        <v>-0.1104173222718182</v>
       </c>
       <c r="C74">
-        <v>0.117397962054339</v>
+        <v>0.1030921501912815</v>
       </c>
       <c r="D74">
-        <v>-0.009105277986244114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02566716199939821</v>
+      </c>
+      <c r="E74">
+        <v>-0.06661369848065538</v>
+      </c>
+      <c r="F74">
+        <v>-0.05833694508041797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2568447985633939</v>
+        <v>-0.2540128785912527</v>
       </c>
       <c r="C75">
-        <v>0.1366024222303278</v>
+        <v>0.1481123031311589</v>
       </c>
       <c r="D75">
-        <v>-0.04652304378704771</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1270984038373442</v>
+      </c>
+      <c r="E75">
+        <v>-0.08232027128743701</v>
+      </c>
+      <c r="F75">
+        <v>-0.02192468340195235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1173321528754997</v>
+        <v>-0.1266727067797389</v>
       </c>
       <c r="C76">
-        <v>0.1075292984347986</v>
+        <v>0.1092972806558899</v>
       </c>
       <c r="D76">
-        <v>-0.03098480151122767</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05875497766291585</v>
+      </c>
+      <c r="E76">
+        <v>-0.07187598514798547</v>
+      </c>
+      <c r="F76">
+        <v>-0.07021810744164902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07316712210474398</v>
+        <v>-0.06104067631532218</v>
       </c>
       <c r="C77">
-        <v>0.05983802736623484</v>
+        <v>0.06634111080767034</v>
       </c>
       <c r="D77">
-        <v>0.04026840513746927</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06802378956217299</v>
+      </c>
+      <c r="E77">
+        <v>-0.06504615481580915</v>
+      </c>
+      <c r="F77">
+        <v>-0.121975455312509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04275488165271621</v>
+        <v>-0.04159724260217278</v>
       </c>
       <c r="C78">
-        <v>0.04462687823483111</v>
+        <v>0.05552660978191969</v>
       </c>
       <c r="D78">
-        <v>0.01264931584621119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07392203963648132</v>
+      </c>
+      <c r="E78">
+        <v>-0.01898969476027083</v>
+      </c>
+      <c r="F78">
+        <v>-0.1039563535227079</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.01968762125573217</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03392342373107202</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05457501680943119</v>
+      </c>
+      <c r="E79">
+        <v>-0.04344978477470508</v>
+      </c>
+      <c r="F79">
+        <v>-0.03327273059818182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.045927256914779</v>
+        <v>-0.0337404413654782</v>
       </c>
       <c r="C80">
-        <v>0.05202627053513291</v>
+        <v>0.05190226082170707</v>
       </c>
       <c r="D80">
-        <v>0.02535290703701465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04778187424316876</v>
+      </c>
+      <c r="E80">
+        <v>-0.008615166549687532</v>
+      </c>
+      <c r="F80">
+        <v>-0.03353450786591188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.139838932976262</v>
+        <v>-0.1383729411029392</v>
       </c>
       <c r="C81">
-        <v>0.08261259707841768</v>
+        <v>0.09933554340982327</v>
       </c>
       <c r="D81">
-        <v>-0.01928589881358633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09229062279901443</v>
+      </c>
+      <c r="E81">
+        <v>-0.08221637677971226</v>
+      </c>
+      <c r="F81">
+        <v>-0.02506850822882748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07053361915228087</v>
+        <v>-0.1901697345591786</v>
       </c>
       <c r="C82">
-        <v>0.0491546027796726</v>
+        <v>0.1427460718277077</v>
       </c>
       <c r="D82">
-        <v>-0.027808388250033</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2251500502007722</v>
+      </c>
+      <c r="E82">
+        <v>-0.02072423808858281</v>
+      </c>
+      <c r="F82">
+        <v>-0.07814284637942127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02623201566115165</v>
+        <v>-0.02663339134215765</v>
       </c>
       <c r="C83">
-        <v>0.02160855553437451</v>
+        <v>0.03829292452486249</v>
       </c>
       <c r="D83">
-        <v>0.01366911837098564</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0364098788210897</v>
+      </c>
+      <c r="E83">
+        <v>-0.008537133847564349</v>
+      </c>
+      <c r="F83">
+        <v>-0.05228097604439143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2352210305637663</v>
+        <v>-0.2035573931088009</v>
       </c>
       <c r="C85">
-        <v>0.1207783527351231</v>
+        <v>0.1306779342563034</v>
       </c>
       <c r="D85">
-        <v>-0.1109235281141246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1057900131943932</v>
+      </c>
+      <c r="E85">
+        <v>-0.006367617875669552</v>
+      </c>
+      <c r="F85">
+        <v>0.01491658852213174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.006576702470221992</v>
+        <v>-0.01177473863354905</v>
       </c>
       <c r="C86">
-        <v>0.02151102352052234</v>
+        <v>0.02891138899584852</v>
       </c>
       <c r="D86">
-        <v>0.02234570999142486</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07758477992834104</v>
+      </c>
+      <c r="E86">
+        <v>-0.04307736609842951</v>
+      </c>
+      <c r="F86">
+        <v>-0.1403921617704337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01954230098429029</v>
+        <v>-0.01930356445805301</v>
       </c>
       <c r="C87">
-        <v>0.01976073179793661</v>
+        <v>0.02015106211418121</v>
       </c>
       <c r="D87">
-        <v>0.0918451446673237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09269325809648299</v>
+      </c>
+      <c r="E87">
+        <v>-0.08059654086340169</v>
+      </c>
+      <c r="F87">
+        <v>-0.09318432663876194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1013896795987352</v>
+        <v>-0.08811754963290139</v>
       </c>
       <c r="C88">
-        <v>0.07501974287618658</v>
+        <v>0.0650162892247203</v>
       </c>
       <c r="D88">
-        <v>-0.01587340350207095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01420561474214323</v>
+      </c>
+      <c r="E88">
+        <v>-0.03067500517701117</v>
+      </c>
+      <c r="F88">
+        <v>-0.0714564182800812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2011190440925412</v>
+        <v>-0.2320597655868871</v>
       </c>
       <c r="C89">
-        <v>-0.3726008274363593</v>
+        <v>-0.3767531451263025</v>
       </c>
       <c r="D89">
-        <v>-0.02644687956069433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01708344379582249</v>
+      </c>
+      <c r="E89">
+        <v>-0.03518425933775034</v>
+      </c>
+      <c r="F89">
+        <v>-0.1001083820849374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1855435693884307</v>
+        <v>-0.2093682193890584</v>
       </c>
       <c r="C90">
-        <v>-0.3422637027973043</v>
+        <v>-0.3152651183489523</v>
       </c>
       <c r="D90">
-        <v>0.005167262733697707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01269439859941178</v>
+      </c>
+      <c r="E90">
+        <v>-0.06075508079577982</v>
+      </c>
+      <c r="F90">
+        <v>-0.04654721152210181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.200257342441866</v>
+        <v>-0.187752894956857</v>
       </c>
       <c r="C91">
-        <v>0.1188998653834036</v>
+        <v>0.1424957256063828</v>
       </c>
       <c r="D91">
-        <v>-0.04614022649870609</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.100055316411094</v>
+      </c>
+      <c r="E91">
+        <v>-0.07511532252184698</v>
+      </c>
+      <c r="F91">
+        <v>-0.04730849616427242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1759806153178533</v>
+        <v>-0.1895687619238187</v>
       </c>
       <c r="C92">
-        <v>-0.2768022098865749</v>
+        <v>-0.2718192743400812</v>
       </c>
       <c r="D92">
-        <v>-0.01206227167425574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005720392852410127</v>
+      </c>
+      <c r="E92">
+        <v>-0.06888426686843727</v>
+      </c>
+      <c r="F92">
+        <v>-0.07010600566379031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2091692368546379</v>
+        <v>-0.2345965955662895</v>
       </c>
       <c r="C93">
-        <v>-0.3407380539556062</v>
+        <v>-0.3162070931127564</v>
       </c>
       <c r="D93">
-        <v>0.011045956435523</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0009169598404214621</v>
+      </c>
+      <c r="E93">
+        <v>-0.04828429204299246</v>
+      </c>
+      <c r="F93">
+        <v>-0.04167676339585674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.2867445924995082</v>
+        <v>-0.3364241590813346</v>
       </c>
       <c r="C94">
-        <v>0.1648222189147369</v>
+        <v>0.2010881140801772</v>
       </c>
       <c r="D94">
-        <v>-0.06519538135763821</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4662626012418717</v>
+      </c>
+      <c r="E94">
+        <v>-0.170959172848024</v>
+      </c>
+      <c r="F94">
+        <v>0.4359920191929573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09564264447239793</v>
+        <v>-0.08071231751001924</v>
       </c>
       <c r="C95">
-        <v>0.07575949287069575</v>
+        <v>0.07408686464521166</v>
       </c>
       <c r="D95">
-        <v>0.02011147378694414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1493998102562407</v>
+      </c>
+      <c r="E95">
+        <v>0.1426618347287872</v>
+      </c>
+      <c r="F95">
+        <v>-0.2029758745675863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2049380895836751</v>
+        <v>-0.1883174365504029</v>
       </c>
       <c r="C98">
-        <v>0.02644091356951387</v>
+        <v>0.04457077396881014</v>
       </c>
       <c r="D98">
-        <v>0.01364565737317684</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1690596237969348</v>
+      </c>
+      <c r="E98">
+        <v>0.1582289529731633</v>
+      </c>
+      <c r="F98">
+        <v>0.04193751313298506</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01182397582374913</v>
+        <v>-0.005713329927165516</v>
       </c>
       <c r="C101">
-        <v>0.02527135880871252</v>
+        <v>0.02556533358500759</v>
       </c>
       <c r="D101">
-        <v>-0.01634817913969716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02390778010059057</v>
+      </c>
+      <c r="E101">
+        <v>-0.03085370736639273</v>
+      </c>
+      <c r="F101">
+        <v>-0.08993381584545471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1206597730239604</v>
+        <v>-0.1204649870182516</v>
       </c>
       <c r="C102">
-        <v>0.07901736372015145</v>
+        <v>0.102687042126007</v>
       </c>
       <c r="D102">
-        <v>-0.04284152405542334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05032610620446529</v>
+      </c>
+      <c r="E102">
+        <v>0.01010525619053063</v>
+      </c>
+      <c r="F102">
+        <v>-0.03863488140293405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
